--- a/data/trans_orig/P0901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>56675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44263</v>
+        <v>44895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70607</v>
+        <v>72223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08166255101922931</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06377809858561387</v>
+        <v>0.06468935179477177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1017375022440966</v>
+        <v>0.1040666142768166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -765,19 +765,19 @@
         <v>86692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70948</v>
+        <v>69920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106529</v>
+        <v>103200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.125941408117165</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1030700758859535</v>
+        <v>0.1015754364329798</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1547595191411831</v>
+        <v>0.1499228105885382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -786,19 +786,19 @@
         <v>143367</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123186</v>
+        <v>123051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168829</v>
+        <v>166311</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1037113134864389</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08911273062526899</v>
+        <v>0.08901503508213532</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1221308878924441</v>
+        <v>0.1203091866262211</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>637337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>623405</v>
+        <v>621789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>649749</v>
+        <v>649117</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9183374489807707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8982624977559036</v>
+        <v>0.8959333857231835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9362219014143862</v>
+        <v>0.9353106482052282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>608</v>
@@ -836,19 +836,19 @@
         <v>601659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581822</v>
+        <v>585151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>617403</v>
+        <v>618431</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.874058591882835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8452404808588168</v>
+        <v>0.8500771894114618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8969299241140464</v>
+        <v>0.8984245635670203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1233</v>
@@ -857,19 +857,19 @@
         <v>1238996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1213534</v>
+        <v>1216052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1259177</v>
+        <v>1259312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8962886865135612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.877869112107556</v>
+        <v>0.8796908133737793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9108872693747312</v>
+        <v>0.9109849649178647</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>94327</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77064</v>
+        <v>76492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114338</v>
+        <v>111627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09807334181227899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08012494754357447</v>
+        <v>0.07953051696879769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1188788992438123</v>
+        <v>0.1160601503889287</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -982,19 +982,19 @@
         <v>156099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134729</v>
+        <v>133301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180552</v>
+        <v>180786</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1611938183584592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1391267092926438</v>
+        <v>0.1376516285720646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1864446922466733</v>
+        <v>0.1866863670432519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -1003,19 +1003,19 @@
         <v>250426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>221485</v>
+        <v>220996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280699</v>
+        <v>281576</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1297413819025133</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1147477314015583</v>
+        <v>0.1144940051270878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1454252944575739</v>
+        <v>0.1458798125535198</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>867473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>847462</v>
+        <v>850173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>884736</v>
+        <v>885308</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.901926658187721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8811211007561878</v>
+        <v>0.8839398496110713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9198750524564255</v>
+        <v>0.9204694830312024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>765</v>
@@ -1053,19 +1053,19 @@
         <v>812294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>787841</v>
+        <v>787607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>833664</v>
+        <v>835092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8388061816415407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8135553077533267</v>
+        <v>0.8133136329567482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8608732907073562</v>
+        <v>0.8623483714279354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1570</v>
@@ -1074,19 +1074,19 @@
         <v>1679767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1649494</v>
+        <v>1648617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1708708</v>
+        <v>1709197</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8702586180974867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8545747055424261</v>
+        <v>0.8541201874464805</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8852522685984419</v>
+        <v>0.8855059948729123</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>58578</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44948</v>
+        <v>44081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73924</v>
+        <v>73148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08633310648616249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06624508671196336</v>
+        <v>0.06496766282692626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1089504197933111</v>
+        <v>0.1078073135511839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -1199,19 +1199,19 @@
         <v>120530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101738</v>
+        <v>101936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142032</v>
+        <v>142486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1762544218691301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1487744759888773</v>
+        <v>0.1490638383369163</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2076969489555875</v>
+        <v>0.2083606126363424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1220,19 +1220,19 @@
         <v>179108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156616</v>
+        <v>156098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205945</v>
+        <v>204351</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1314697363464131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1149601060205498</v>
+        <v>0.1145801673973515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.151168597257424</v>
+        <v>0.149998955687364</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>619931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604585</v>
+        <v>605361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>633561</v>
+        <v>634428</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9136668935138375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8910495802066888</v>
+        <v>0.8921926864488159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9337549132880366</v>
+        <v>0.9350323371730737</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>575</v>
@@ -1270,19 +1270,19 @@
         <v>563311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541809</v>
+        <v>541355</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>582103</v>
+        <v>581905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8237455781308699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.792303051044413</v>
+        <v>0.7916393873636575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8512255240111228</v>
+        <v>0.8509361616630832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1159</v>
@@ -1291,19 +1291,19 @@
         <v>1183242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1156405</v>
+        <v>1157999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1205734</v>
+        <v>1206252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8685302636535869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.848831402742576</v>
+        <v>0.850001044312636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.88503989397945</v>
+        <v>0.8854198326026486</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>86838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69785</v>
+        <v>70774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105346</v>
+        <v>104429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09216295623604687</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07406465712867902</v>
+        <v>0.07511394309564147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1118062967559507</v>
+        <v>0.1108324132032089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>178</v>
@@ -1416,19 +1416,19 @@
         <v>188813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163072</v>
+        <v>164444</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216037</v>
+        <v>215067</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1817932632800479</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1570092990262725</v>
+        <v>0.1583308306552123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2080050818251832</v>
+        <v>0.207071866915958</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>272</v>
@@ -1437,19 +1437,19 @@
         <v>275651</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245655</v>
+        <v>246193</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309827</v>
+        <v>309278</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1391588721250968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1240159355361986</v>
+        <v>0.1242875422111044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1564124276583739</v>
+        <v>0.1561354422773134</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>855384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>836876</v>
+        <v>837793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>872437</v>
+        <v>871448</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9078370437639531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8881937032440501</v>
+        <v>0.8891675867967912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9259353428713214</v>
+        <v>0.9248860569043587</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>819</v>
@@ -1487,19 +1487,19 @@
         <v>849799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>822575</v>
+        <v>823545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>875540</v>
+        <v>874168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8182067367199521</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7919949181748169</v>
+        <v>0.7929281330840423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8429907009737275</v>
+        <v>0.841669169344788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1719</v>
@@ -1508,19 +1508,19 @@
         <v>1705183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1671007</v>
+        <v>1671556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1735179</v>
+        <v>1734641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8608411278749032</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8435875723416263</v>
+        <v>0.8438645577226866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8759840644638015</v>
+        <v>0.8757124577888957</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>296417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09046653281879337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>530</v>
@@ -1633,19 +1633,19 @@
         <v>552134</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1633919315485758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>830</v>
@@ -1654,19 +1654,19 @@
         <v>848551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.127491610089047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2980126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2944085</v>
+        <v>2947677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3012935</v>
+        <v>3016626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9095334671812066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8985339473142198</v>
+        <v>0.8996300693325051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9195468099353652</v>
+        <v>0.9206734524755471</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2767</v>
@@ -1704,19 +1704,19 @@
         <v>2827063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2783391</v>
+        <v>2779356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2869873</v>
+        <v>2866369</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8366080684514242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8236840302865298</v>
+        <v>0.8224901189770721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8492765082757826</v>
+        <v>0.8482395824298613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5681</v>
@@ -1725,19 +1725,19 @@
         <v>5807190</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5753268</v>
+        <v>5753287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5861773</v>
+        <v>5865685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.872508389910953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8644067837085774</v>
+        <v>0.8644096974656748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8807093273584073</v>
+        <v>0.8812970555935533</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>90737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73914</v>
+        <v>72699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110310</v>
+        <v>110865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1289854250146911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1050702603728906</v>
+        <v>0.1033442243852218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1568081898461399</v>
+        <v>0.1575979280664855</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -2090,19 +2090,19 @@
         <v>153343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131774</v>
+        <v>131648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175609</v>
+        <v>177429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2199887322719036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1890453365890404</v>
+        <v>0.1888645709044553</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2519314766499521</v>
+        <v>0.2545432934844957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -2111,19 +2111,19 @@
         <v>244080</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>215846</v>
+        <v>217875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273689</v>
+        <v>275749</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1742785315356828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1541184089658387</v>
+        <v>0.1555675473603733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.195420035438705</v>
+        <v>0.1968904404173184</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>612732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>593159</v>
+        <v>592604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>629555</v>
+        <v>630770</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8710145749853089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8431918101538601</v>
+        <v>0.8424020719335146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8949297396271094</v>
+        <v>0.8966557756147783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>507</v>
@@ -2161,19 +2161,19 @@
         <v>543707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>521441</v>
+        <v>519621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>565276</v>
+        <v>565402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7800112677280964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.748068523350048</v>
+        <v>0.7454567065155044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8109546634109598</v>
+        <v>0.811135429095545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1095</v>
@@ -2182,19 +2182,19 @@
         <v>1156439</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1126830</v>
+        <v>1124770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1184673</v>
+        <v>1182644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8257214684643172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8045799645612948</v>
+        <v>0.8031095595826815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8458815910341608</v>
+        <v>0.8444324526396267</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>128650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107207</v>
+        <v>106457</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151564</v>
+        <v>151746</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1263823133430215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1053172265208166</v>
+        <v>0.1045805662756454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1488915838756635</v>
+        <v>0.1490708970660135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -2307,19 +2307,19 @@
         <v>232370</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>203015</v>
+        <v>201896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260789</v>
+        <v>259497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2251246156249477</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1966847412282844</v>
+        <v>0.195600874373817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.252657689462823</v>
+        <v>0.2514056824167246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -2328,19 +2328,19 @@
         <v>361021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>325483</v>
+        <v>326802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>397747</v>
+        <v>395718</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1760963162019785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1587621763884005</v>
+        <v>0.1594054830129315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1940106405817984</v>
+        <v>0.1930209436670504</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>889297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>866383</v>
+        <v>866201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>910740</v>
+        <v>911490</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8736176866569785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8511084161243366</v>
+        <v>0.8509291029339864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8946827734791835</v>
+        <v>0.8954194337243546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>730</v>
@@ -2378,19 +2378,19 @@
         <v>799814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>771395</v>
+        <v>772687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>829169</v>
+        <v>830288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7748753843750523</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7473423105371769</v>
+        <v>0.7485943175832754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8033152587717156</v>
+        <v>0.8043991256261831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1550</v>
@@ -2399,19 +2399,19 @@
         <v>1689110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1652384</v>
+        <v>1654413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1724648</v>
+        <v>1723329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8239036837980215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8059893594182016</v>
+        <v>0.8069790563329495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8412378236115994</v>
+        <v>0.8405945169870683</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>73674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58188</v>
+        <v>57049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94675</v>
+        <v>91883</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.097243815323606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07680402820141748</v>
+        <v>0.07529937755883644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1249625501268483</v>
+        <v>0.1212774245646365</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -2524,19 +2524,19 @@
         <v>144638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121685</v>
+        <v>122759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166846</v>
+        <v>170240</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1861078633303708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1565742357790823</v>
+        <v>0.1579556664309862</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2146827337390689</v>
+        <v>0.2190495905141112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -2545,19 +2545,19 @@
         <v>218312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191826</v>
+        <v>190905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249999</v>
+        <v>248096</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1422418272933697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1249848015218237</v>
+        <v>0.1243848036792051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1628871760324636</v>
+        <v>0.1616475027284712</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>683949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662948</v>
+        <v>665740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699435</v>
+        <v>700574</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.902756184676394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8750374498731517</v>
+        <v>0.8787225754353628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9231959717985818</v>
+        <v>0.9247006224411636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -2595,19 +2595,19 @@
         <v>632536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610328</v>
+        <v>606934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655489</v>
+        <v>654415</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8138921366696292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7853172662609316</v>
+        <v>0.7809504094858889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8434257642209183</v>
+        <v>0.8420443335690139</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1198</v>
@@ -2616,19 +2616,19 @@
         <v>1316485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1284798</v>
+        <v>1286701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1342971</v>
+        <v>1343892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8577581727066302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8371128239675364</v>
+        <v>0.8383524972715288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8750151984781763</v>
+        <v>0.8756151963207949</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>118263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98885</v>
+        <v>98444</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142275</v>
+        <v>140913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1247838941409142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1043373357030355</v>
+        <v>0.1038727166552156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1501209184342037</v>
+        <v>0.1486834342635543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -2741,19 +2741,19 @@
         <v>212564</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186934</v>
+        <v>185994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243863</v>
+        <v>241863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2020756158865021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1777107112249573</v>
+        <v>0.176817082448282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2318309768945464</v>
+        <v>0.2299296585381604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -2762,19 +2762,19 @@
         <v>330826</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>296940</v>
+        <v>301993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>364167</v>
+        <v>369792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1654428250361935</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1484969556970692</v>
+        <v>0.1510237997520373</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1821162762118029</v>
+        <v>0.184929302861791</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>829476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>805464</v>
+        <v>806826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>848854</v>
+        <v>849295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8752161058590858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8498790815657964</v>
+        <v>0.8513165657364457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8956626642969645</v>
+        <v>0.8961272833447844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>801</v>
@@ -2812,19 +2812,19 @@
         <v>839337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>808038</v>
+        <v>810038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>864967</v>
+        <v>865907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.797924384113498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7681690231054535</v>
+        <v>0.7700703414618393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8222892887750427</v>
+        <v>0.8231829175517176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1602</v>
@@ -2833,19 +2833,19 @@
         <v>1668814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1635473</v>
+        <v>1629848</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1702700</v>
+        <v>1697647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8345571749638065</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8178837237881972</v>
+        <v>0.815070697138209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8515030443029308</v>
+        <v>0.8489762002479627</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>411325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1200324195083661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>687</v>
@@ -2958,19 +2958,19 @@
         <v>742915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2087831347405051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1062</v>
@@ -2979,19 +2979,19 @@
         <v>1154239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1652433716024777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3015454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2974853</v>
+        <v>2976657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3057182</v>
+        <v>3053882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8799675804916339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8681191894935841</v>
+        <v>0.8686458700316504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8921446031919993</v>
+        <v>0.8911813588049129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2611</v>
@@ -3029,19 +3029,19 @@
         <v>2815394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2759380</v>
+        <v>2763916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2858277</v>
+        <v>2865701</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.791216865259495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.775475156651814</v>
+        <v>0.7767497787647741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8032684168155488</v>
+        <v>0.8053548372782656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5445</v>
@@ -3050,19 +3050,19 @@
         <v>5830849</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5760275</v>
+        <v>5763409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5894465</v>
+        <v>5892921</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8347566283975223</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8246531188925247</v>
+        <v>0.8251018862562373</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8438641610237397</v>
+        <v>0.8436430222085567</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>87529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72088</v>
+        <v>71817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107358</v>
+        <v>107727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1297103324214319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1068283210423747</v>
+        <v>0.1064269582640701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1590956405706955</v>
+        <v>0.1596433743221078</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -3415,19 +3415,19 @@
         <v>159458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137370</v>
+        <v>138917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183021</v>
+        <v>184187</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2369933721978235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2041646124745233</v>
+        <v>0.2064640626436326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2720130192165497</v>
+        <v>0.2737466081323203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -3436,19 +3436,19 @@
         <v>246987</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>221107</v>
+        <v>217401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277207</v>
+        <v>275813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1832737964466225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1640701157113478</v>
+        <v>0.1613199611657156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2056981479966998</v>
+        <v>0.2046637992735684</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>587271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>567442</v>
+        <v>567073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>602712</v>
+        <v>602983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8702896675785681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8409043594293044</v>
+        <v>0.840356625677892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8931716789576253</v>
+        <v>0.8935730417359298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>519</v>
@@ -3486,19 +3486,19 @@
         <v>513381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>489818</v>
+        <v>488652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>535469</v>
+        <v>533922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7630066278021765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7279869807834503</v>
+        <v>0.7262533918676797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7958353875254766</v>
+        <v>0.7935359373563674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1085</v>
@@ -3507,19 +3507,19 @@
         <v>1100652</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1070432</v>
+        <v>1071826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1126532</v>
+        <v>1130238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8167262035533775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7943018520032999</v>
+        <v>0.7953362007264316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.835929884288652</v>
+        <v>0.8386800388342843</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>102065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82298</v>
+        <v>81867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>121998</v>
+        <v>121532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09982552705403271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08049265346183994</v>
+        <v>0.08007122195641604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1193217769220384</v>
+        <v>0.1188660935300555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -3632,19 +3632,19 @@
         <v>186256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161407</v>
+        <v>160828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>214557</v>
+        <v>213940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1785922880079439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1547654090833711</v>
+        <v>0.154210542966017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2057281219669506</v>
+        <v>0.2051370420048</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>259</v>
@@ -3653,19 +3653,19 @@
         <v>288321</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253153</v>
+        <v>258830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320661</v>
+        <v>324072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1395994723967881</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.122571881393108</v>
+        <v>0.1253205997692207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1552578400555139</v>
+        <v>0.156909397067641</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>920366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>900433</v>
+        <v>900899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>940133</v>
+        <v>940564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9001744729459673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8806782230779612</v>
+        <v>0.8811339064699445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9195073465381599</v>
+        <v>0.919928778043584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>819</v>
@@ -3703,19 +3703,19 @@
         <v>856657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>828356</v>
+        <v>828973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>881506</v>
+        <v>882085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8214077119920561</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7942718780330494</v>
+        <v>0.7948629579951999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8452345909166289</v>
+        <v>0.845789457033983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1669</v>
@@ -3724,19 +3724,19 @@
         <v>1777023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1744683</v>
+        <v>1741272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1812191</v>
+        <v>1806514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.860400527603212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8447421599444861</v>
+        <v>0.8430906029323589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.877428118606892</v>
+        <v>0.8746794002307794</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>63735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49385</v>
+        <v>49031</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82106</v>
+        <v>80652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08391074099458565</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06501880435671455</v>
+        <v>0.06455200823032772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1080981283639242</v>
+        <v>0.1061838253400585</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -3849,19 +3849,19 @@
         <v>145365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125095</v>
+        <v>123004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169866</v>
+        <v>170574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1851754430482304</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.159354342441324</v>
+        <v>0.15669102505652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.216386433659149</v>
+        <v>0.2172888872054787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -3870,19 +3870,19 @@
         <v>209099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180349</v>
+        <v>182065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236818</v>
+        <v>239666</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1353776518694983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1167634910538028</v>
+        <v>0.1178744511527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1533237761623664</v>
+        <v>0.1551672723585549</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>695817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677446</v>
+        <v>678900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>710167</v>
+        <v>710521</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9160892590054144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8919018716360753</v>
+        <v>0.8938161746599416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9349811956432851</v>
+        <v>0.9354479917696724</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>609</v>
@@ -3920,19 +3920,19 @@
         <v>639646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615145</v>
+        <v>614437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659916</v>
+        <v>662007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8148245569517696</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7836135663408509</v>
+        <v>0.7827111127945212</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8406456575586758</v>
+        <v>0.84330897494348</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1244</v>
@@ -3941,19 +3941,19 @@
         <v>1335464</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1307745</v>
+        <v>1304897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1364214</v>
+        <v>1362498</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8646223481305017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8466762238376336</v>
+        <v>0.844832727641445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8832365089461972</v>
+        <v>0.8821255488472997</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>102371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82400</v>
+        <v>84526</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122921</v>
+        <v>121685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1091883239481588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08788740508003451</v>
+        <v>0.09015477608974044</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1311064439433098</v>
+        <v>0.1297876650228981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -4066,19 +4066,19 @@
         <v>198239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171254</v>
+        <v>171938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225452</v>
+        <v>224897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1899246637156638</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1640708746755195</v>
+        <v>0.1647263457521442</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2159963286487212</v>
+        <v>0.2154645758691754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -4087,19 +4087,19 @@
         <v>300611</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268328</v>
+        <v>266561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337427</v>
+        <v>334288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1517204695236825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1354269130408204</v>
+        <v>0.1345352453009454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1703020059786923</v>
+        <v>0.1687176644689723</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>835196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>814646</v>
+        <v>815882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>855167</v>
+        <v>853041</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8908116760518412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8688935560566907</v>
+        <v>0.8702123349771018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9121125949199659</v>
+        <v>0.9098452239102596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>795</v>
@@ -4137,19 +4137,19 @@
         <v>845540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>818327</v>
+        <v>818882</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>872525</v>
+        <v>871841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8100753362843363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7840036713512787</v>
+        <v>0.7845354241308247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8359291253244804</v>
+        <v>0.8352736542478557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1629</v>
@@ -4158,19 +4158,19 @@
         <v>1680735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1643919</v>
+        <v>1647058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1713018</v>
+        <v>1714785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8482795304763175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8296979940213078</v>
+        <v>0.8312823355310275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8645730869591797</v>
+        <v>0.8654647546990545</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>355699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1047915443360537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>596</v>
@@ -4283,19 +4283,19 @@
         <v>689319</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1944732880956528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>942</v>
@@ -4304,19 +4304,19 @@
         <v>1045018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1506029925651535</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3038651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3004115</v>
+        <v>3004291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3075374</v>
+        <v>3074647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8952084556639464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8850339224573242</v>
+        <v>0.8850858693354009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9060273967536943</v>
+        <v>0.9058132022335401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2742</v>
@@ -4354,19 +4354,19 @@
         <v>2855223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2801794</v>
+        <v>2801690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2901059</v>
+        <v>2903970</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8055267119043471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7904530525526636</v>
+        <v>0.7904235889546668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8184580422974397</v>
+        <v>0.8192794564217879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5627</v>
@@ -4375,19 +4375,19 @@
         <v>5893874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5833841</v>
+        <v>5834007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5952218</v>
+        <v>5954862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8493970074348465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8407453161133719</v>
+        <v>0.8407692780061014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8578052823033369</v>
+        <v>0.8581863227620891</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>104156</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87249</v>
+        <v>86204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124595</v>
+        <v>124950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1509031395136946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.126408645889596</v>
+        <v>0.1248938952159511</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1805150088556409</v>
+        <v>0.1810296445730694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -4740,19 +4740,19 @@
         <v>148844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134206</v>
+        <v>132596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166385</v>
+        <v>166366</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2031899529711115</v>
+        <v>0.2031899529711114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1832078238469672</v>
+        <v>0.181010286767222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2271368806287598</v>
+        <v>0.2271100027228938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>417</v>
@@ -4761,19 +4761,19 @@
         <v>252999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228876</v>
+        <v>227659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281786</v>
+        <v>279485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1778241316381729</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.160868350694741</v>
+        <v>0.1600130918388093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1980572454801321</v>
+        <v>0.1964399954786794</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>586061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>565622</v>
+        <v>565267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>602968</v>
+        <v>604013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8490968604863055</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8194849911443588</v>
+        <v>0.8189703554269306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.873591354110404</v>
+        <v>0.875106104784049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>942</v>
@@ -4811,19 +4811,19 @@
         <v>583690</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>566149</v>
+        <v>566168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598328</v>
+        <v>599938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7968100470288886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7728631193712401</v>
+        <v>0.7728899972771064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8167921761530329</v>
+        <v>0.8189897132327781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1550</v>
@@ -4832,19 +4832,19 @@
         <v>1169752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1140965</v>
+        <v>1143266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1193875</v>
+        <v>1195092</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8221758683618272</v>
+        <v>0.8221758683618271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8019427545198681</v>
+        <v>0.8035600045213205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8391316493052592</v>
+        <v>0.8399869081611905</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>125433</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105471</v>
+        <v>104307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145729</v>
+        <v>149296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1195831811996879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1005521761138952</v>
+        <v>0.09944276980451822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1389327181375898</v>
+        <v>0.1423339195187352</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>351</v>
@@ -4957,19 +4957,19 @@
         <v>218800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199378</v>
+        <v>198670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242093</v>
+        <v>241302</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2045376487421832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1863820950982954</v>
+        <v>0.1857200608423343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2263125944205373</v>
+        <v>0.2255731220942943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>483</v>
@@ -4978,19 +4978,19 @@
         <v>344233</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>313604</v>
+        <v>313238</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378231</v>
+        <v>378456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1624776647880944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1480210384685823</v>
+        <v>0.1478480479465316</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.178525019480907</v>
+        <v>0.1786309184947388</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>923484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>903188</v>
+        <v>899621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>943446</v>
+        <v>944610</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8804168188003122</v>
+        <v>0.8804168188003121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8610672818624102</v>
+        <v>0.8576660804812646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8994478238861043</v>
+        <v>0.9005572301954815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1163</v>
@@ -5028,19 +5028,19 @@
         <v>850928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>827635</v>
+        <v>828426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>870350</v>
+        <v>871058</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7954623512578168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7736874055794625</v>
+        <v>0.7744268779057062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8136179049017046</v>
+        <v>0.8142799391576666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1995</v>
@@ -5049,19 +5049,19 @@
         <v>1774413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1740415</v>
+        <v>1740190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1805042</v>
+        <v>1805408</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8375223352119057</v>
+        <v>0.8375223352119056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8214749805190931</v>
+        <v>0.8213690815052612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8519789615314175</v>
+        <v>0.8521519520534683</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>116146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96336</v>
+        <v>95271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136621</v>
+        <v>136566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1446266530019749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1199593914084993</v>
+        <v>0.1186328240033162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.170122391275189</v>
+        <v>0.1700546975948324</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>240</v>
@@ -5174,19 +5174,19 @@
         <v>160417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141793</v>
+        <v>142218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180892</v>
+        <v>180799</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1974952487696968</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1745659040096587</v>
+        <v>0.1750898846398018</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2227019638335859</v>
+        <v>0.2225878104026156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>354</v>
@@ -5195,19 +5195,19 @@
         <v>276563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>248594</v>
+        <v>249060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>305276</v>
+        <v>306175</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1712112713002124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1538967871468466</v>
+        <v>0.1541847560074119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1889867447318244</v>
+        <v>0.1895432256782147</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>686927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>666452</v>
+        <v>666507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>706737</v>
+        <v>707802</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8553733469980253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8298776087248109</v>
+        <v>0.8299453024051675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8800406085915001</v>
+        <v>0.8813671759966836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>807</v>
@@ -5245,19 +5245,19 @@
         <v>651842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631367</v>
+        <v>631460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670466</v>
+        <v>670041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8025047512303032</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.777298036166414</v>
+        <v>0.7774121895973845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.825434095990341</v>
+        <v>0.8249101153601982</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1369</v>
@@ -5266,19 +5266,19 @@
         <v>1338769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1310056</v>
+        <v>1309157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1366738</v>
+        <v>1366272</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8287887286997877</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8110132552681757</v>
+        <v>0.8104567743217852</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8461032128531533</v>
+        <v>0.845815243992588</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>135268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116895</v>
+        <v>114106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159754</v>
+        <v>159041</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1368597767059731</v>
+        <v>0.136859776705973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1182700016664665</v>
+        <v>0.1154480605792103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1616335736516587</v>
+        <v>0.160912392736785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>377</v>
@@ -5391,19 +5391,19 @@
         <v>245972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222963</v>
+        <v>221906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272049</v>
+        <v>270110</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.219805765084176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1992445369877486</v>
+        <v>0.1983004433352762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.243108686620975</v>
+        <v>0.241375888844401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>536</v>
@@ -5412,19 +5412,19 @@
         <v>381240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353914</v>
+        <v>348164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414941</v>
+        <v>414830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1809042900790092</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1679378604718063</v>
+        <v>0.1652089939538249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1968957653075244</v>
+        <v>0.1968434440827306</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>853104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>828618</v>
+        <v>829331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>871477</v>
+        <v>874266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8631402232940271</v>
+        <v>0.863140223294027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8383664263483414</v>
+        <v>0.8390876072632149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8817299983335339</v>
+        <v>0.8845519394207897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1185</v>
@@ -5462,19 +5462,19 @@
         <v>873069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>846992</v>
+        <v>848931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>896078</v>
+        <v>897135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7801942349158241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7568913133790253</v>
+        <v>0.7586241111555989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8007554630122518</v>
+        <v>0.8016995566647238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2030</v>
@@ -5483,19 +5483,19 @@
         <v>1726173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1692472</v>
+        <v>1692583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1753499</v>
+        <v>1759249</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8190957099209907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8031042346924756</v>
+        <v>0.8031565559172696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8320621395281955</v>
+        <v>0.8347910060461751</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>481003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1264</v>
@@ -5608,19 +5608,19 @@
         <v>774032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2073173454063106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1790</v>
@@ -5629,19 +5629,19 @@
         <v>1255035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1727712952341451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3049576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3005662</v>
+        <v>3009133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3088084</v>
+        <v>3091677</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8637609092495522</v>
+        <v>0.8637609092495521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8513225535676501</v>
+        <v>0.8523057202165749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8746679627627857</v>
+        <v>0.8756856365201354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4097</v>
@@ -5679,19 +5679,19 @@
         <v>2959531</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2918686</v>
+        <v>2917028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2997420</v>
+        <v>3001170</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7926826545936895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7817427667460599</v>
+        <v>0.7812987129702864</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8028310905629047</v>
+        <v>0.8038354100016961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6944</v>
@@ -5700,19 +5700,19 @@
         <v>6009107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5946269</v>
+        <v>5953879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6061963</v>
+        <v>6075047</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.827228704765855</v>
+        <v>0.8272287047658547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8185783128478937</v>
+        <v>0.8196259622798807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8345049964734839</v>
+        <v>0.8363062301574687</v>
       </c>
     </row>
     <row r="18">
